--- a/biology/Médecine/Hôpital_privé_des_Peupliers/Hôpital_privé_des_Peupliers.xlsx
+++ b/biology/Médecine/Hôpital_privé_des_Peupliers/Hôpital_privé_des_Peupliers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_priv%C3%A9_des_Peupliers</t>
+          <t>Hôpital_privé_des_Peupliers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Longtemps dénommé hôpital de la Croix-Rouge, l'hôpital privé des Peupliers est situé 8 place de l'Abbé-Georges-Hénocque à Paris, 13e arrondissement.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_priv%C3%A9_des_Peupliers</t>
+          <t>Hôpital_privé_des_Peupliers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est fondé en 1908 par Marie Génin (° 5 avril 1859 - † 8 avril 1947)[1],[2] en tant qu'hôpital-école des infirmières de la Société de secours aux blessés militaires (SSBM), devenue par la suite Croix-Rouge française[3].
-Il est acheté en 2006 par le groupe Générale de Santé[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est fondé en 1908 par Marie Génin (° 5 avril 1859 - † 8 avril 1947), en tant qu'hôpital-école des infirmières de la Société de secours aux blessés militaires (SSBM), devenue par la suite Croix-Rouge française.
+Il est acheté en 2006 par le groupe Générale de Santé.
 			Le premier bâtiment, hôpital des Dames françaises de la Croix-Rouge, rue de la Colonie, construits en 1895 par Hector Degeorge.
 			Hôpital-école de secours aux blessés militaire, place des peupliers, aujourd'hui place de l'Abbé-Georges-Hénocque
 			Au fond, l'hôpital actuel, on devine, après transformation, l'ancienne structure du bâtiment.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_priv%C3%A9_des_Peupliers</t>
+          <t>Hôpital_privé_des_Peupliers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,6 +562,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
